--- a/tut05/output/0501CS32.xlsx
+++ b/tut05/output/0501CS32.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.36734693877551</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>8.772727272727273</v>
+        <v>8.77</v>
       </c>
       <c r="D6" t="n">
-        <v>9.302325581395349</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>8.468085106382979</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>9.238095238095237</v>
+        <v>9.24</v>
       </c>
       <c r="G6" t="n">
-        <v>8.475</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>8.829268292682928</v>
+        <v>8.83</v>
       </c>
       <c r="I6" t="n">
         <v>8.85</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.36734693877551</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>9.086021505376344</v>
+        <v>9.09</v>
       </c>
       <c r="D8" t="n">
-        <v>9.154411764705882</v>
+        <v>9.15</v>
       </c>
       <c r="E8" t="n">
-        <v>8.978142076502733</v>
+        <v>8.98</v>
       </c>
       <c r="F8" t="n">
-        <v>9.026666666666667</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>8.943396226415095</v>
+        <v>8.94</v>
       </c>
       <c r="H8" t="n">
-        <v>8.928104575163399</v>
+        <v>8.93</v>
       </c>
       <c r="I8" t="n">
-        <v>8.919075144508671</v>
+        <v>8.92</v>
       </c>
     </row>
   </sheetData>
